--- a/data/trans_bre/P1401-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1401-Provincia-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>2.081739396257885</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.2341408557029181</v>
+        <v>0.2341408557029179</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>1.29029036980497</v>
@@ -627,7 +627,7 @@
         <v>7.036623839836613</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.241791158926584</v>
+        <v>0.2417911589265838</v>
       </c>
     </row>
     <row r="5">
@@ -638,20 +638,20 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.4440278520799826</v>
+        <v>-0.5315657323192086</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4267250243047764</v>
+        <v>0.6735384136238237</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.086352641603186</v>
+        <v>-1.113474608889907</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.4920288669408452</v>
+        <v>-0.4397662700366394</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="n">
-        <v>-0.6976462537151633</v>
+        <v>-0.7031822033445151</v>
       </c>
     </row>
     <row r="6">
@@ -662,20 +662,20 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.37196478056612</v>
+        <v>4.638972761757789</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.225496965832125</v>
+        <v>4.436209140991456</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.503702959671667</v>
+        <v>1.398907405631423</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>8.175181840576943</v>
+        <v>9.793846656979662</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>4.384641046833518</v>
+        <v>5.089964808059856</v>
       </c>
     </row>
     <row r="7">
@@ -696,7 +696,7 @@
         <v>0.03864192548827788</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>-0.4712614395426982</v>
+        <v>-0.4712614395426978</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.5762406658661877</v>
@@ -705,7 +705,7 @@
         <v>0.047257661177668</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.2408453331349871</v>
+        <v>-0.240845333134987</v>
       </c>
     </row>
     <row r="8">
@@ -716,20 +716,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.8157159504678096</v>
+        <v>-0.7351056799854443</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.173438041973416</v>
+        <v>-1.020445806859069</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.978706286579714</v>
+        <v>-2.228013280847476</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.7026192208273995</v>
-      </c>
-      <c r="G8" s="6" t="inlineStr"/>
+        <v>-0.7303463036512753</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.8541750468442052</v>
+      </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6599108632055164</v>
+        <v>-0.7142657714457361</v>
       </c>
     </row>
     <row r="9">
@@ -740,20 +742,20 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.987574462064623</v>
+        <v>1.918112691522062</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.228278091614887</v>
+        <v>1.277499149915347</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.028706784145363</v>
+        <v>0.9084726327083726</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>6.573402629399774</v>
+        <v>6.711616216423338</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="n">
-        <v>1.154752822737386</v>
+        <v>0.9865543370366041</v>
       </c>
     </row>
     <row r="10">
@@ -774,7 +776,7 @@
         <v>2.12829155490939</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.6558516730312488</v>
+        <v>0.6558516730312485</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>-0.06597641491316157</v>
@@ -783,7 +785,7 @@
         <v>1.283762796740076</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3222520483960253</v>
+        <v>0.3222520483960251</v>
       </c>
     </row>
     <row r="11">
@@ -794,22 +796,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.021184796316621</v>
+        <v>-2.940937964911755</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.3656726449936979</v>
+        <v>-0.1426308942348262</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.102785917343858</v>
+        <v>-1.11623509395399</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.8549594371673923</v>
+        <v>-0.8326000335289538</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2671497491839472</v>
+        <v>-0.3156546406048147</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.379728388376126</v>
+        <v>-0.4328346091762284</v>
       </c>
     </row>
     <row r="12">
@@ -820,22 +822,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.751134733033727</v>
+        <v>1.963918085066702</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.136951383944852</v>
+        <v>5.297713978885056</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.518310213036357</v>
+        <v>2.300965186383024</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>2.276352320816066</v>
+        <v>2.896175069387315</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>5.771991668925751</v>
+        <v>6.805723471987077</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.139538883980001</v>
+        <v>1.947488117118427</v>
       </c>
     </row>
     <row r="13">
@@ -865,7 +867,7 @@
         <v>0.9033243199337252</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4753632192997443</v>
+        <v>0.4753632192997442</v>
       </c>
     </row>
     <row r="14">
@@ -876,22 +878,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4649211641473221</v>
+        <v>0.3897454414856092</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.6093106844622612</v>
+        <v>-0.5795797171260412</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.987638297925495</v>
+        <v>-1.192533980655266</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.04460742385115553</v>
+        <v>-0.05610102888730908</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4132400627168847</v>
+        <v>-0.4196722376385192</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.341535969707757</v>
+        <v>-0.3784600687262924</v>
       </c>
     </row>
     <row r="15">
@@ -902,22 +904,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.496946142331272</v>
+        <v>4.341637024792496</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.83572485538255</v>
+        <v>3.896306278024288</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.661200269240577</v>
+        <v>2.557476215120238</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>14.98559011236306</v>
+        <v>16.83231050024047</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5.580559483514513</v>
+        <v>5.39192133919214</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.698145859364921</v>
+        <v>2.512381347475023</v>
       </c>
     </row>
     <row r="16">
@@ -947,7 +949,7 @@
         <v>-0.6684464471434199</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4984821793483767</v>
+        <v>0.4984821793483764</v>
       </c>
     </row>
     <row r="17">
@@ -958,18 +960,20 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.622662204314228</v>
+        <v>-4.80001166544324</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.245388224273979</v>
+        <v>-3.136166303749764</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.089691415019266</v>
-      </c>
-      <c r="F17" s="6" t="inlineStr"/>
+        <v>-1.197485420191436</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="G17" s="6" t="inlineStr"/>
       <c r="H17" s="6" t="n">
-        <v>-0.3505810853379984</v>
+        <v>-0.3543025185445692</v>
       </c>
     </row>
     <row r="18">
@@ -980,18 +984,20 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.095573678824362</v>
+        <v>1.89646413958006</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4689382543132339</v>
+        <v>0.4526285793392569</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.350284554541913</v>
-      </c>
-      <c r="F18" s="6" t="inlineStr"/>
+        <v>3.275651233734948</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>3.40385796477244</v>
+      </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="n">
-        <v>3.134177785549147</v>
+        <v>3.42207089437164</v>
       </c>
     </row>
     <row r="19">
@@ -1012,7 +1018,7 @@
         <v>0.1701957522150898</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>-0.6771738710591817</v>
+        <v>-0.6771738710591814</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.2825353646764049</v>
@@ -1032,20 +1038,20 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-2.361895593827821</v>
+        <v>-2.586201059707377</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-0.6022421764432793</v>
+        <v>-0.6025052285694191</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-2.576479695395939</v>
+        <v>-2.638201730785196</v>
       </c>
       <c r="F20" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="n">
-        <v>-0.6942204625510208</v>
+        <v>-0.6515418069618857</v>
       </c>
     </row>
     <row r="21">
@@ -1056,18 +1062,20 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.420893444819574</v>
+        <v>1.42469546985954</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>1.907440133309549</v>
+        <v>1.961937238155248</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.160002739408214</v>
-      </c>
-      <c r="F21" s="6" t="inlineStr"/>
+        <v>1.231715214795751</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>2.95862844025879</v>
+      </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="n">
-        <v>0.6797625551783126</v>
+        <v>0.8015512802339547</v>
       </c>
     </row>
     <row r="22">
@@ -1088,7 +1096,7 @@
         <v>1.599163823134043</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-0.983937902455961</v>
+        <v>-0.9839379024559604</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>2.690345394700024</v>
@@ -1097,7 +1105,7 @@
         <v>2.245591740084277</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>-0.3808866623007571</v>
+        <v>-0.3808866623007569</v>
       </c>
     </row>
     <row r="23">
@@ -1108,22 +1116,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7484431311682993</v>
+        <v>0.6921357262247364</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4500515008706717</v>
+        <v>0.277451849552281</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.443900659642069</v>
+        <v>-2.356536147640465</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>0.4254400568234748</v>
+        <v>0.1779257315322049</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.06695515668826038</v>
+        <v>0.0007540012050931129</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.6783546314512138</v>
+        <v>-0.6815113566301316</v>
       </c>
     </row>
     <row r="24">
@@ -1134,22 +1142,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.628479981155239</v>
+        <v>3.7110752309336</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.133881305735677</v>
+        <v>3.130775395432332</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3190139938156764</v>
+        <v>0.3487979966100083</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>10.3174323253899</v>
+        <v>10.97643083046766</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>9.312091140926441</v>
+        <v>9.524764999877709</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1936017868998319</v>
+        <v>0.232447099018973</v>
       </c>
     </row>
     <row r="25">
@@ -1170,7 +1178,7 @@
         <v>1.423283326969584</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.9921318571155771</v>
+        <v>0.9921318571155774</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.6446522510029642</v>
@@ -1179,7 +1187,7 @@
         <v>2.006787812943745</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4807027024908661</v>
+        <v>0.4807027024908662</v>
       </c>
     </row>
     <row r="26">
@@ -1190,22 +1198,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.5282865514281042</v>
+        <v>-0.5221286741510693</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.3490101716126061</v>
+        <v>0.25418761191123</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.301591667016523</v>
+        <v>-0.3411288824264452</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4561454671516034</v>
+        <v>-0.4532152667977161</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.05292133534000562</v>
+        <v>-0.02490686675126203</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1380794672437176</v>
+        <v>-0.1422543094642414</v>
       </c>
     </row>
     <row r="27">
@@ -1216,22 +1224,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>1.717729526634362</v>
+        <v>1.745686011611146</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>2.616486816398125</v>
+        <v>2.769816142148601</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2.330927128185952</v>
+        <v>2.360699202774804</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>3.239131500933516</v>
+        <v>3.66841633648827</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>7.827920711730212</v>
+        <v>8.019768989321484</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.594986529247641</v>
+        <v>1.747853904180109</v>
       </c>
     </row>
     <row r="28">
@@ -1252,7 +1260,7 @@
         <v>1.131332573612726</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.1609234126149942</v>
+        <v>0.1609234126149939</v>
       </c>
       <c r="F28" s="6" t="n">
         <v>0.7625960841850347</v>
@@ -1261,7 +1269,7 @@
         <v>1.291491483090923</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07613424529314622</v>
+        <v>0.07613424529314604</v>
       </c>
     </row>
     <row r="29">
@@ -1272,22 +1280,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.3017580719721132</v>
+        <v>0.2233403665653746</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.5534525190978073</v>
+        <v>0.575806202303519</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.3970961759867206</v>
+        <v>-0.3946519663645293</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>0.2146276658481644</v>
+        <v>0.1397426135218945</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.4336076597572228</v>
+        <v>0.5064933335453624</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.1613477232672585</v>
+        <v>-0.1599464559921509</v>
       </c>
     </row>
     <row r="30">
@@ -1298,22 +1306,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.490660141799615</v>
+        <v>1.474110211831698</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.786634278187432</v>
+        <v>1.77575132927154</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.7893355439267493</v>
+        <v>0.7630948452680305</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>1.653538655896193</v>
+        <v>1.658703427255018</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>2.64829847990287</v>
+        <v>2.777819962311316</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4326100516724518</v>
+        <v>0.4284222035966248</v>
       </c>
     </row>
     <row r="31">
